--- a/lib/data/tables.xlsx
+++ b/lib/data/tables.xlsx
@@ -8,7 +8,7 @@
     <sheet name="lookup_table" sheetId="1" r:id="rId4"/>
     <sheet name="section" sheetId="2" r:id="rId5"/>
     <sheet name="item" sheetId="3" r:id="rId6"/>
-    <sheet name="spec" sheetId="4" r:id="rId7"/>
+    <sheet name="subitem" sheetId="4" r:id="rId7"/>
     <sheet name="brand" sheetId="5" r:id="rId8"/>
     <sheet name="product" sheetId="6" r:id="rId9"/>
   </sheets>
